--- a/Technology/Software/Intuit.xlsx
+++ b/Technology/Software/Intuit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B69DA6-DA5C-0449-AE6B-404D6DC30F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC66A6B-B9FF-B746-977A-63541B54C741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1017,6 +1017,12 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1028,12 +1034,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2465,13 +2465,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>492.37</v>
-    <v>339.36</v>
-    <v>1.1823999999999999</v>
-    <v>8.39</v>
-    <v>1.9139E-2</v>
-    <v>-0.61</v>
-    <v>-1.3650000000000001E-3</v>
+    <v>490.83</v>
+    <v>352.63</v>
+    <v>1.1768000000000001</v>
+    <v>-33.880000000000003</v>
+    <v>-7.5322E-2</v>
+    <v>7.0000000000000007E-2</v>
+    <v>1.6830000000000003E-4</v>
     <v>USD</v>
     <v>Intuit Inc. is a global technology platform that helps consumers, small businesses, and the self-employed prosper by delivering financial management and compliance products and services. The Company operates through four segments: Small Business &amp; Self-Employed, Consumer, Credit Karma and ProConnect. Small Business &amp; Self-Employed segment serves small businesses and the self-employed around the world, and the accounting professionals who assist and advise them. Its offerings include QuickBooks financial and business management online services and desktop software, payroll solutions, time tracking, merchant payment processing solutions, and financing for small businesses. The Consumer segment serves consumers and includes do-it-yourself and assisted TurboTax income tax preparation products and services. Credit Karma segment serves consumers with a personal finance platform that provides personalized recommendations of credit card, home, auto and personal loans, and insurance products.</v>
     <v>17300</v>
@@ -2479,25 +2479,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2700 Coast Avenue, MOUNTAIN VIEW, CA, 94043 US</v>
-    <v>447.94</v>
+    <v>425.73</v>
     <v>Financial Technology (Fintech) &amp; Infrastructure</v>
     <v>Stock</v>
-    <v>45022.997082245311</v>
+    <v>45070.999601180469</v>
     <v>0</v>
-    <v>432.35840000000002</v>
-    <v>125336900000</v>
+    <v>413.36</v>
+    <v>116684858688</v>
     <v>INTUIT INC.</v>
     <v>INTUIT INC.</v>
-    <v>433.83</v>
-    <v>65.589699999999993</v>
-    <v>438.37</v>
-    <v>446.76</v>
-    <v>446.15</v>
+    <v>421</v>
+    <v>52.559800000000003</v>
+    <v>449.8</v>
+    <v>415.92</v>
+    <v>415.99</v>
     <v>280546400</v>
     <v>INTU</v>
     <v>INTUIT INC. (XNAS:INTU)</v>
-    <v>1673701</v>
-    <v>1747681</v>
+    <v>6664363</v>
+    <v>1540502</v>
     <v>1993</v>
   </rv>
   <rv s="2">
@@ -3085,10 +3085,10 @@
   <dimension ref="A1:AN118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Y2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AC82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG11" sqref="AG11"/>
+      <selection pane="bottomRight" activeCell="AF97" sqref="AF97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4895,15 +4895,15 @@
       </c>
       <c r="AL16" s="30">
         <f>AM101/AE3</f>
-        <v>9.8488841741316993</v>
+        <v>9.1690129410655352</v>
       </c>
       <c r="AM16" s="30">
         <f>AM101/AE28</f>
-        <v>60.66645692158761</v>
+        <v>56.478634408518879</v>
       </c>
       <c r="AN16" s="31">
         <f>AM101/AE106</f>
-        <v>34.245054644808747</v>
+        <v>31.881108931147541</v>
       </c>
     </row>
     <row r="17" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -11388,10 +11388,10 @@
       <c r="AE83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AL83" s="60" t="s">
+      <c r="AL83" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="AM83" s="61"/>
+      <c r="AM83" s="63"/>
     </row>
     <row r="84" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -11487,10 +11487,10 @@
       <c r="AE84" s="1">
         <v>-95000000</v>
       </c>
-      <c r="AL84" s="62" t="s">
+      <c r="AL84" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="AM84" s="63"/>
+      <c r="AM84" s="65"/>
     </row>
     <row r="85" spans="1:39" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -12432,10 +12432,10 @@
       <c r="AE93" s="1">
         <v>-510000000</v>
       </c>
-      <c r="AL93" s="62" t="s">
+      <c r="AL93" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="AM93" s="63"/>
+      <c r="AM93" s="65"/>
     </row>
     <row r="94" spans="1:39" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -12637,7 +12637,7 @@
       </c>
       <c r="AM95" s="39" cm="1">
         <f t="array" ref="AM95">_FV(A1,"Beta")</f>
-        <v>1.1823999999999999</v>
+        <v>1.1768000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -12840,7 +12840,7 @@
       </c>
       <c r="AM97" s="36">
         <f>(AM94)+((AM95)*(AM96-AM94))</f>
-        <v>9.1852320000000001E-2</v>
+        <v>9.161124000000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -12937,10 +12937,10 @@
       <c r="AE98" s="1">
         <v>-774000000</v>
       </c>
-      <c r="AL98" s="62" t="s">
+      <c r="AL98" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="AM98" s="63"/>
+      <c r="AM98" s="65"/>
     </row>
     <row r="99" spans="1:39" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -13143,7 +13143,7 @@
       </c>
       <c r="AM100" s="34">
         <f>AM99/AM103</f>
-        <v>5.6744249752966845E-2</v>
+        <v>6.0696386211533331E-2</v>
       </c>
     </row>
     <row r="101" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -13245,7 +13245,7 @@
       </c>
       <c r="AM101" s="40" cm="1">
         <f t="array" ref="AM101">_FV(A1,"Market cap",TRUE)</f>
-        <v>125336900000</v>
+        <v>116684858688</v>
       </c>
     </row>
     <row r="102" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -13347,7 +13347,7 @@
       </c>
       <c r="AM102" s="34">
         <f>AM101/AM103</f>
-        <v>0.94325575024703312</v>
+        <v>0.93930361378846672</v>
       </c>
     </row>
     <row r="103" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -13449,7 +13449,7 @@
       </c>
       <c r="AM103" s="41">
         <f>AM99+AM101</f>
-        <v>132876900000</v>
+        <v>124224858688</v>
       </c>
     </row>
     <row r="104" spans="1:39" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -13546,10 +13546,10 @@
       <c r="AE104" s="11">
         <v>2997000000</v>
       </c>
-      <c r="AL104" s="62" t="s">
+      <c r="AL104" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="AM104" s="63"/>
+      <c r="AM104" s="65"/>
     </row>
     <row r="105" spans="1:39" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -13683,7 +13683,7 @@
       </c>
       <c r="AM105" s="26">
         <f>(AM100*AM92)+(AM102*AM97)</f>
-        <v>8.7135668141181261E-2</v>
+        <v>8.658071438073893E-2</v>
       </c>
     </row>
     <row r="106" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -13849,7 +13849,7 @@
       <c r="AI107" s="43"/>
       <c r="AJ107" s="46">
         <f>AJ106*(1+AM107)/(AM108-AM107)</f>
-        <v>113581967069.71518</v>
+        <v>114605546292.16554</v>
       </c>
       <c r="AK107" s="47" t="s">
         <v>148</v>
@@ -13880,7 +13880,7 @@
       </c>
       <c r="AJ108" s="46">
         <f>AJ107+AJ106</f>
-        <v>120467324545.48727</v>
+        <v>121490903767.93764</v>
       </c>
       <c r="AK108" s="47" t="s">
         <v>144</v>
@@ -13890,14 +13890,14 @@
       </c>
       <c r="AM108" s="51">
         <f>AM105</f>
-        <v>8.7135668141181261E-2</v>
+        <v>8.658071438073893E-2</v>
       </c>
     </row>
     <row r="109" spans="1:39" ht="19" x14ac:dyDescent="0.25">
-      <c r="AF109" s="64" t="s">
+      <c r="AF109" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="AG109" s="65"/>
+      <c r="AG109" s="61"/>
     </row>
     <row r="110" spans="1:39" ht="20" x14ac:dyDescent="0.25">
       <c r="AF110" s="52" t="s">
@@ -13905,7 +13905,7 @@
       </c>
       <c r="AG110" s="40">
         <f>NPV(AM108,AF108,AG108,AH108,AI108,AJ108)</f>
-        <v>95646089716.688766</v>
+        <v>96545962066.361099</v>
       </c>
     </row>
     <row r="111" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -13932,7 +13932,7 @@
       </c>
       <c r="AG113" s="40">
         <f>AG110+AG111-AG112</f>
-        <v>91387089716.688766</v>
+        <v>92286962066.361099</v>
       </c>
     </row>
     <row r="114" spans="32:33" ht="20" x14ac:dyDescent="0.25">
@@ -13950,7 +13950,7 @@
       </c>
       <c r="AG115" s="55">
         <f>AG113/AG114</f>
-        <v>296.33666695072753</v>
+        <v>299.2546411811108</v>
       </c>
     </row>
     <row r="116" spans="32:33" ht="20" x14ac:dyDescent="0.25">
@@ -13959,7 +13959,7 @@
       </c>
       <c r="AG116" s="56" cm="1">
         <f t="array" ref="AG116">_FV(A1,"Price")</f>
-        <v>446.76</v>
+        <v>415.92</v>
       </c>
     </row>
     <row r="117" spans="32:33" ht="20" x14ac:dyDescent="0.25">
@@ -13968,7 +13968,7 @@
       </c>
       <c r="AG117" s="58">
         <f>AG115/AG116-1</f>
-        <v>-0.33669830121155087</v>
+        <v>-0.28049951629854109</v>
       </c>
     </row>
     <row r="118" spans="32:33" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Intuit.xlsx
+++ b/Technology/Software/Intuit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC66A6B-B9FF-B746-977A-63541B54C741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41039720-C45B-2A45-81CF-4BCE526AF8F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2467,11 +2467,11 @@
     <v>Powered by Refinitiv</v>
     <v>490.83</v>
     <v>352.63</v>
-    <v>1.1768000000000001</v>
-    <v>-33.880000000000003</v>
-    <v>-7.5322E-2</v>
-    <v>7.0000000000000007E-2</v>
-    <v>1.6830000000000003E-4</v>
+    <v>1.1820999999999999</v>
+    <v>5.33</v>
+    <v>1.2902E-2</v>
+    <v>0.78</v>
+    <v>1.8640000000000002E-3</v>
     <v>USD</v>
     <v>Intuit Inc. is a global technology platform that helps consumers, small businesses, and the self-employed prosper by delivering financial management and compliance products and services. The Company operates through four segments: Small Business &amp; Self-Employed, Consumer, Credit Karma and ProConnect. Small Business &amp; Self-Employed segment serves small businesses and the self-employed around the world, and the accounting professionals who assist and advise them. Its offerings include QuickBooks financial and business management online services and desktop software, payroll solutions, time tracking, merchant payment processing solutions, and financing for small businesses. The Consumer segment serves consumers and includes do-it-yourself and assisted TurboTax income tax preparation products and services. Credit Karma segment serves consumers with a personal finance platform that provides personalized recommendations of credit card, home, auto and personal loans, and insurance products.</v>
     <v>17300</v>
@@ -2479,25 +2479,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2700 Coast Avenue, MOUNTAIN VIEW, CA, 94043 US</v>
-    <v>425.73</v>
+    <v>428</v>
     <v>Financial Technology (Fintech) &amp; Infrastructure</v>
     <v>Stock</v>
-    <v>45070.999601180469</v>
+    <v>45072.999852001565</v>
     <v>0</v>
-    <v>413.36</v>
-    <v>116684858688</v>
+    <v>413.11</v>
+    <v>117185380271</v>
     <v>INTUIT INC.</v>
     <v>INTUIT INC.</v>
-    <v>421</v>
-    <v>52.559800000000003</v>
-    <v>449.8</v>
-    <v>415.92</v>
-    <v>415.99</v>
-    <v>280546400</v>
+    <v>413.76</v>
+    <v>52.203499999999998</v>
+    <v>413.1</v>
+    <v>418.43</v>
+    <v>419.21</v>
+    <v>280059700</v>
     <v>INTU</v>
     <v>INTUIT INC. (XNAS:INTU)</v>
-    <v>6664363</v>
-    <v>1540502</v>
+    <v>3287260</v>
+    <v>1895611</v>
     <v>1993</v>
   </rv>
   <rv s="2">
@@ -2662,9 +2662,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -4895,15 +4895,15 @@
       </c>
       <c r="AL16" s="30">
         <f>AM101/AE3</f>
-        <v>9.1690129410655352</v>
+        <v>9.2083435699355647</v>
       </c>
       <c r="AM16" s="30">
         <f>AM101/AE28</f>
-        <v>56.478634408518879</v>
+        <v>56.720900421587608</v>
       </c>
       <c r="AN16" s="31">
         <f>AM101/AE106</f>
-        <v>31.881108931147541</v>
+        <v>32.017863462021857</v>
       </c>
     </row>
     <row r="17" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -12637,7 +12637,7 @@
       </c>
       <c r="AM95" s="39" cm="1">
         <f t="array" ref="AM95">_FV(A1,"Beta")</f>
-        <v>1.1768000000000001</v>
+        <v>1.1820999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -12840,7 +12840,7 @@
       </c>
       <c r="AM97" s="36">
         <f>(AM94)+((AM95)*(AM96-AM94))</f>
-        <v>9.161124000000001E-2</v>
+        <v>9.1839405000000013E-2</v>
       </c>
     </row>
     <row r="98" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -13143,7 +13143,7 @@
       </c>
       <c r="AM100" s="34">
         <f>AM99/AM103</f>
-        <v>6.0696386211533331E-2</v>
+        <v>6.0452812279403662E-2</v>
       </c>
     </row>
     <row r="101" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -13245,7 +13245,7 @@
       </c>
       <c r="AM101" s="40" cm="1">
         <f t="array" ref="AM101">_FV(A1,"Market cap",TRUE)</f>
-        <v>116684858688</v>
+        <v>117185380271</v>
       </c>
     </row>
     <row r="102" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -13347,7 +13347,7 @@
       </c>
       <c r="AM102" s="34">
         <f>AM101/AM103</f>
-        <v>0.93930361378846672</v>
+        <v>0.93954718772059631</v>
       </c>
     </row>
     <row r="103" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -13449,7 +13449,7 @@
       </c>
       <c r="AM103" s="41">
         <f>AM99+AM101</f>
-        <v>124224858688</v>
+        <v>124725380271</v>
       </c>
     </row>
     <row r="104" spans="1:39" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -13683,7 +13683,7 @@
       </c>
       <c r="AM105" s="26">
         <f>(AM100*AM92)+(AM102*AM97)</f>
-        <v>8.658071438073893E-2</v>
+        <v>8.6815273608958882E-2</v>
       </c>
     </row>
     <row r="106" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -13849,7 +13849,7 @@
       <c r="AI107" s="43"/>
       <c r="AJ107" s="46">
         <f>AJ106*(1+AM107)/(AM108-AM107)</f>
-        <v>114605546292.16554</v>
+        <v>114170673372.92444</v>
       </c>
       <c r="AK107" s="47" t="s">
         <v>148</v>
@@ -13880,7 +13880,7 @@
       </c>
       <c r="AJ108" s="46">
         <f>AJ107+AJ106</f>
-        <v>121490903767.93764</v>
+        <v>121056030848.69653</v>
       </c>
       <c r="AK108" s="47" t="s">
         <v>144</v>
@@ -13890,7 +13890,7 @@
       </c>
       <c r="AM108" s="51">
         <f>AM105</f>
-        <v>8.658071438073893E-2</v>
+        <v>8.6815273608958882E-2</v>
       </c>
     </row>
     <row r="109" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -13905,7 +13905,7 @@
       </c>
       <c r="AG110" s="40">
         <f>NPV(AM108,AF108,AG108,AH108,AI108,AJ108)</f>
-        <v>96545962066.361099</v>
+        <v>96163637134.632828</v>
       </c>
     </row>
     <row r="111" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -13932,7 +13932,7 @@
       </c>
       <c r="AG113" s="40">
         <f>AG110+AG111-AG112</f>
-        <v>92286962066.361099</v>
+        <v>91904637134.632828</v>
       </c>
     </row>
     <row r="114" spans="32:33" ht="20" x14ac:dyDescent="0.25">
@@ -13950,7 +13950,7 @@
       </c>
       <c r="AG115" s="55">
         <f>AG113/AG114</f>
-        <v>299.2546411811108</v>
+        <v>298.01489390048556</v>
       </c>
     </row>
     <row r="116" spans="32:33" ht="20" x14ac:dyDescent="0.25">
@@ -13959,7 +13959,7 @@
       </c>
       <c r="AG116" s="56" cm="1">
         <f t="array" ref="AG116">_FV(A1,"Price")</f>
-        <v>415.92</v>
+        <v>418.43</v>
       </c>
     </row>
     <row r="117" spans="32:33" ht="20" x14ac:dyDescent="0.25">
@@ -13968,7 +13968,7 @@
       </c>
       <c r="AG117" s="58">
         <f>AG115/AG116-1</f>
-        <v>-0.28049951629854109</v>
+        <v>-0.28777837654927807</v>
       </c>
     </row>
     <row r="118" spans="32:33" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Intuit.xlsx
+++ b/Technology/Software/Intuit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41039720-C45B-2A45-81CF-4BCE526AF8F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F366914-1FA0-C141-BACB-4D8300CE76F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2467,11 +2467,9 @@
     <v>Powered by Refinitiv</v>
     <v>490.83</v>
     <v>352.63</v>
-    <v>1.1820999999999999</v>
-    <v>5.33</v>
-    <v>1.2902E-2</v>
-    <v>0.78</v>
-    <v>1.8640000000000002E-3</v>
+    <v>1.1822999999999999</v>
+    <v>0.31</v>
+    <v>6.8809999999999997E-4</v>
     <v>USD</v>
     <v>Intuit Inc. is a global technology platform that helps consumers, small businesses, and the self-employed prosper by delivering financial management and compliance products and services. The Company operates through four segments: Small Business &amp; Self-Employed, Consumer, Credit Karma and ProConnect. Small Business &amp; Self-Employed segment serves small businesses and the self-employed around the world, and the accounting professionals who assist and advise them. Its offerings include QuickBooks financial and business management online services and desktop software, payroll solutions, time tracking, merchant payment processing solutions, and financing for small businesses. The Consumer segment serves consumers and includes do-it-yourself and assisted TurboTax income tax preparation products and services. Credit Karma segment serves consumers with a personal finance platform that provides personalized recommendations of credit card, home, auto and personal loans, and insurance products.</v>
     <v>17300</v>
@@ -2479,25 +2477,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2700 Coast Avenue, MOUNTAIN VIEW, CA, 94043 US</v>
-    <v>428</v>
+    <v>451.76</v>
     <v>Financial Technology (Fintech) &amp; Infrastructure</v>
     <v>Stock</v>
-    <v>45072.999852001565</v>
+    <v>45099.980490960159</v>
     <v>0</v>
-    <v>413.11</v>
-    <v>117185380271</v>
+    <v>445.65</v>
+    <v>126262115148</v>
     <v>INTUIT INC.</v>
     <v>INTUIT INC.</v>
-    <v>413.76</v>
-    <v>52.203499999999998</v>
-    <v>413.1</v>
-    <v>418.43</v>
-    <v>419.21</v>
+    <v>448.75</v>
+    <v>56.972700000000003</v>
+    <v>450.53</v>
+    <v>450.84</v>
     <v>280059700</v>
     <v>INTU</v>
     <v>INTUIT INC. (XNAS:INTU)</v>
-    <v>3287260</v>
-    <v>1895611</v>
+    <v>472</v>
+    <v>2370558</v>
     <v>1993</v>
   </rv>
   <rv s="2">
@@ -2529,8 +2526,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2551,7 +2546,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2568,7 +2562,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2579,16 +2573,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2654,19 +2645,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2711,9 +2696,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2721,9 +2703,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3088,7 +3067,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="AC82" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AF97" sqref="AF97"/>
+      <selection pane="bottomRight" activeCell="AG97" sqref="AG97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4895,15 +4874,15 @@
       </c>
       <c r="AL16" s="30">
         <f>AM101/AE3</f>
-        <v>9.2083435699355647</v>
+        <v>9.9215869203206033</v>
       </c>
       <c r="AM16" s="30">
         <f>AM101/AE28</f>
-        <v>56.720900421587608</v>
+        <v>61.114286131655369</v>
       </c>
       <c r="AN16" s="31">
         <f>AM101/AE106</f>
-        <v>32.017863462021857</v>
+        <v>34.497845668852456</v>
       </c>
     </row>
     <row r="17" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -12637,7 +12616,7 @@
       </c>
       <c r="AM95" s="39" cm="1">
         <f t="array" ref="AM95">_FV(A1,"Beta")</f>
-        <v>1.1820999999999999</v>
+        <v>1.1822999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -12840,7 +12819,7 @@
       </c>
       <c r="AM97" s="36">
         <f>(AM94)+((AM95)*(AM96-AM94))</f>
-        <v>9.1839405000000013E-2</v>
+        <v>9.1848015000000005E-2</v>
       </c>
     </row>
     <row r="98" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -13143,7 +13122,7 @@
       </c>
       <c r="AM100" s="34">
         <f>AM99/AM103</f>
-        <v>6.0452812279403662E-2</v>
+        <v>5.6351874495107368E-2</v>
       </c>
     </row>
     <row r="101" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -13245,7 +13224,7 @@
       </c>
       <c r="AM101" s="40" cm="1">
         <f t="array" ref="AM101">_FV(A1,"Market cap",TRUE)</f>
-        <v>117185380271</v>
+        <v>126262115148</v>
       </c>
     </row>
     <row r="102" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -13347,7 +13326,7 @@
       </c>
       <c r="AM102" s="34">
         <f>AM101/AM103</f>
-        <v>0.93954718772059631</v>
+        <v>0.94364812550489263</v>
       </c>
     </row>
     <row r="103" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -13449,7 +13428,7 @@
       </c>
       <c r="AM103" s="41">
         <f>AM99+AM101</f>
-        <v>124725380271</v>
+        <v>133802115148</v>
       </c>
     </row>
     <row r="104" spans="1:39" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -13683,7 +13662,7 @@
       </c>
       <c r="AM105" s="26">
         <f>(AM100*AM92)+(AM102*AM97)</f>
-        <v>8.6815273608958882E-2</v>
+        <v>8.716422045022125E-2</v>
       </c>
     </row>
     <row r="106" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -13849,7 +13828,7 @@
       <c r="AI107" s="43"/>
       <c r="AJ107" s="46">
         <f>AJ106*(1+AM107)/(AM108-AM107)</f>
-        <v>114170673372.92444</v>
+        <v>113529798355.91716</v>
       </c>
       <c r="AK107" s="47" t="s">
         <v>148</v>
@@ -13880,7 +13859,7 @@
       </c>
       <c r="AJ108" s="46">
         <f>AJ107+AJ106</f>
-        <v>121056030848.69653</v>
+        <v>120415155831.68925</v>
       </c>
       <c r="AK108" s="47" t="s">
         <v>144</v>
@@ -13890,7 +13869,7 @@
       </c>
       <c r="AM108" s="51">
         <f>AM105</f>
-        <v>8.6815273608958882E-2</v>
+        <v>8.716422045022125E-2</v>
       </c>
     </row>
     <row r="109" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -13905,7 +13884,7 @@
       </c>
       <c r="AG110" s="40">
         <f>NPV(AM108,AF108,AG108,AH108,AI108,AJ108)</f>
-        <v>96163637134.632828</v>
+        <v>95600228061.878723</v>
       </c>
     </row>
     <row r="111" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -13932,7 +13911,7 @@
       </c>
       <c r="AG113" s="40">
         <f>AG110+AG111-AG112</f>
-        <v>91904637134.632828</v>
+        <v>91341228061.878723</v>
       </c>
     </row>
     <row r="114" spans="32:33" ht="20" x14ac:dyDescent="0.25">
@@ -13950,7 +13929,7 @@
       </c>
       <c r="AG115" s="55">
         <f>AG113/AG114</f>
-        <v>298.01489390048556</v>
+        <v>296.1879534949278</v>
       </c>
     </row>
     <row r="116" spans="32:33" ht="20" x14ac:dyDescent="0.25">
@@ -13959,7 +13938,7 @@
       </c>
       <c r="AG116" s="56" cm="1">
         <f t="array" ref="AG116">_FV(A1,"Price")</f>
-        <v>418.43</v>
+        <v>450.84</v>
       </c>
     </row>
     <row r="117" spans="32:33" ht="20" x14ac:dyDescent="0.25">
@@ -13968,7 +13947,7 @@
       </c>
       <c r="AG117" s="58">
         <f>AG115/AG116-1</f>
-        <v>-0.28777837654927807</v>
+        <v>-0.34303089012747801</v>
       </c>
     </row>
     <row r="118" spans="32:33" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/Intuit.xlsx
+++ b/Technology/Software/Intuit.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F366914-1FA0-C141-BACB-4D8300CE76F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5FCC36-9B43-5545-9192-F9F70B7102C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -393,9 +393,6 @@
     <t>Income Tax Expense</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>WACC</t>
   </si>
   <si>
@@ -510,9 +507,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -550,17 +544,49 @@
   </si>
   <si>
     <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -729,7 +755,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -835,22 +861,13 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -858,47 +875,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -940,99 +922,97 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1085,19 +1065,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>INTU</a:t>
+              <a:t>Intuit</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.46979205322107015"/>
-          <c:y val="1.8419034484847968E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1131,10 +1103,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.6851485148514845E-2"/>
-          <c:y val="0.10136608644828"/>
-          <c:w val="0.86562376237623762"/>
-          <c:h val="0.7638265632772796"/>
+          <c:x val="9.9388704318936871E-2"/>
+          <c:y val="0.15908042156704305"/>
+          <c:w val="0.84213953488372095"/>
+          <c:h val="0.55735282608275827"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1188,6 +1160,105 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AE$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$B$3:$AE$3</c:f>
@@ -1289,7 +1360,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CB17-1D46-B23F-0F291735B20C}"/>
+              <c16:uniqueId val="{00000000-DEE8-E44F-97AE-5DABB20D0ABB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1298,11 +1369,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1340,108 +1411,207 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AE$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$AE$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$AE$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>17300000</c:v>
+                  <c:v>8400000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-136000000</c:v>
+                  <c:v>-176300000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42800000</c:v>
+                  <c:v>-45400000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63900000</c:v>
+                  <c:v>-20700000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>139700000</c:v>
+                  <c:v>68300000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33300000</c:v>
+                  <c:v>-12200000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>758600000</c:v>
+                  <c:v>376500000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>726049000</c:v>
+                  <c:v>305661000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>242602000</c:v>
+                  <c:v>-82793000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>230183000</c:v>
+                  <c:v>140160000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>565633000</c:v>
+                  <c:v>343034000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>568623000</c:v>
+                  <c:v>317030000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>697167000</c:v>
+                  <c:v>381627000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>766061000</c:v>
+                  <c:v>416963000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>830340000</c:v>
+                  <c:v>440003000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>938804000</c:v>
+                  <c:v>476762000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>978120000</c:v>
+                  <c:v>447041000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1167000000</c:v>
+                  <c:v>574000000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1267000000</c:v>
+                  <c:v>634000000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1468000000</c:v>
+                  <c:v>792000000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1507000000</c:v>
+                  <c:v>858000000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1588000000</c:v>
+                  <c:v>907000000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>922000000</c:v>
+                  <c:v>365000000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1649000000</c:v>
+                  <c:v>979000000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1634000000</c:v>
+                  <c:v>971000000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1776000000</c:v>
+                  <c:v>1211000000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2121000000</c:v>
+                  <c:v>1557000000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2430000000</c:v>
+                  <c:v>1826000000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2948000000</c:v>
+                  <c:v>2062000000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3369000000</c:v>
+                  <c:v>2066000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CB17-1D46-B23F-0F291735B20C}"/>
+              <c16:uniqueId val="{00000001-DEE8-E44F-97AE-5DABB20D0ABB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1450,11 +1620,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1492,9 +1662,108 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AE$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$AE$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$AE$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="30"/>
@@ -1593,7 +1862,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CB17-1D46-B23F-0F291735B20C}"/>
+              <c16:uniqueId val="{00000002-DEE8-E44F-97AE-5DABB20D0ABB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1607,11 +1876,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1505182832"/>
-        <c:axId val="1505184560"/>
+        <c:axId val="747867199"/>
+        <c:axId val="747868927"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1505182832"/>
+        <c:axId val="747867199"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1639,7 +1908,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1651,7 +1920,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1505184560"/>
+        <c:crossAx val="747868927"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1659,7 +1928,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1505184560"/>
+        <c:axId val="747868927"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1708,7 +1977,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1505182832"/>
+        <c:crossAx val="747867199"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1726,10 +1995,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35004329409318891"/>
-          <c:y val="0.92530364414876587"/>
-          <c:w val="0.30255367584002496"/>
-          <c:h val="4.1951405655948876E-2"/>
+          <c:x val="0.3516303136526539"/>
+          <c:y val="0.87253405742524559"/>
+          <c:w val="0.31534402385748295"/>
+          <c:h val="6.6150888394912649E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2309,22 +2578,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>17462</xdr:rowOff>
+      <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>1587500</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D534F24-7469-245E-5D35-FE96811A3E7A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4A97B66-3E38-CF5E-76CB-85686DA5647D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2343,6 +2612,60 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.9120000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3064,10 +3387,10 @@
   <dimension ref="A1:AN118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AC82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AC87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG97" sqref="AG97"/>
+      <selection pane="bottomRight" activeCell="AG94" sqref="AG94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3171,19 +3494,19 @@
       <c r="AE1" s="8">
         <v>2022</v>
       </c>
-      <c r="AF1" s="27">
+      <c r="AF1" s="23">
         <v>2023</v>
       </c>
-      <c r="AG1" s="27">
+      <c r="AG1" s="23">
         <v>2024</v>
       </c>
-      <c r="AH1" s="27">
+      <c r="AH1" s="23">
         <v>2025</v>
       </c>
-      <c r="AI1" s="27">
+      <c r="AI1" s="23">
         <v>2026</v>
       </c>
-      <c r="AJ1" s="27">
+      <c r="AJ1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3192,103 +3515,103 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI2" s="9"/>
       <c r="AJ2" s="9"/>
@@ -3387,174 +3710,174 @@
       <c r="AE3" s="1">
         <v>12726000000</v>
       </c>
-      <c r="AF3" s="28">
-        <v>14173000000</v>
-      </c>
-      <c r="AG3" s="28">
-        <v>15811000000</v>
-      </c>
-      <c r="AH3" s="28">
-        <v>18056000000</v>
-      </c>
-      <c r="AI3" s="28">
-        <v>21105000000</v>
-      </c>
-      <c r="AJ3" s="28">
-        <v>23922000000</v>
+      <c r="AF3" s="24">
+        <v>14300000000</v>
+      </c>
+      <c r="AG3" s="24">
+        <v>15978000000</v>
+      </c>
+      <c r="AH3" s="24">
+        <v>18227000000</v>
+      </c>
+      <c r="AI3" s="24">
+        <v>21334000000</v>
+      </c>
+      <c r="AJ3" s="24">
+        <v>23896000000</v>
       </c>
       <c r="AK3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AL3" s="19" t="s">
+      <c r="AN3" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="AM3" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="AN3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="15">
+      <c r="C4" s="65">
         <f>(C3/B3)-1</f>
         <v>0.59884678747940701</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="65">
         <f>(D3/C3)-1</f>
         <v>1.0386398763523959</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="65">
         <f>(E3/D3)-1</f>
         <v>0.36113217083649229</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="65">
         <f t="shared" ref="F4:AJ4" si="0">(F3/E3)-1</f>
         <v>0.11195692536204982</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="65">
         <f t="shared" si="0"/>
         <v>-1.0352312573050582E-2</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="65">
         <f t="shared" si="0"/>
         <v>0.43006580057364596</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="65">
         <f t="shared" si="0"/>
         <v>0.29049669655497867</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="65">
         <f t="shared" si="0"/>
         <v>0.15325669096976213</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="65">
         <f t="shared" si="0"/>
         <v>7.68053867697851E-2</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="65">
         <f t="shared" si="0"/>
         <v>0.16427528144481385</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="65">
         <f t="shared" si="0"/>
         <v>0.18095076102235175</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="65">
         <f t="shared" si="0"/>
         <v>9.1044262267871767E-2</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="65">
         <f t="shared" si="0"/>
         <v>0.14948203933546744</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="65">
         <f t="shared" si="0"/>
         <v>0.14116192482356049</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="65">
         <f t="shared" si="0"/>
         <v>0.15040590030404632</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="65">
         <f t="shared" si="0"/>
         <v>3.4980133165353644E-2</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="65">
         <f t="shared" si="0"/>
         <v>8.5611887622987659E-2</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="65">
         <f t="shared" si="0"/>
         <v>0.114616497829233</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="65">
         <f t="shared" si="0"/>
         <v>7.7901843676966953E-2</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="65">
         <f t="shared" si="0"/>
         <v>4.8181161165983255E-3</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="65">
         <f t="shared" si="0"/>
         <v>8.0316470870294809E-2</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="65">
         <f t="shared" si="0"/>
         <v>-6.9684864624944498E-2</v>
       </c>
-      <c r="Y4" s="16">
+      <c r="Y4" s="65">
         <f t="shared" si="0"/>
         <v>0.11975190839694649</v>
       </c>
-      <c r="Z4" s="16">
+      <c r="Z4" s="65">
         <f t="shared" si="0"/>
         <v>0.10289731572219862</v>
       </c>
-      <c r="AA4" s="16">
+      <c r="AA4" s="65">
         <f t="shared" si="0"/>
         <v>0.15201854355804523</v>
       </c>
-      <c r="AB4" s="16">
+      <c r="AB4" s="65">
         <f t="shared" si="0"/>
         <v>0.13749161636485585</v>
       </c>
-      <c r="AC4" s="16">
+      <c r="AC4" s="65">
         <f t="shared" si="0"/>
         <v>0.13192806603773577</v>
       </c>
-      <c r="AD4" s="16">
+      <c r="AD4" s="65">
         <f t="shared" si="0"/>
         <v>0.25446021617398107</v>
       </c>
-      <c r="AE4" s="16">
+      <c r="AE4" s="65">
         <f t="shared" si="0"/>
         <v>0.32108377452507009</v>
       </c>
       <c r="AF4" s="16">
         <f t="shared" si="0"/>
-        <v>0.11370422756561371</v>
+        <v>0.12368379695112375</v>
       </c>
       <c r="AG4" s="16">
         <f t="shared" si="0"/>
-        <v>0.11557186199110991</v>
+        <v>0.11734265734265725</v>
       </c>
       <c r="AH4" s="16">
         <f t="shared" si="0"/>
-        <v>0.14198975396875602</v>
+        <v>0.1407560395543872</v>
       </c>
       <c r="AI4" s="16">
         <f t="shared" si="0"/>
-        <v>0.16886353566681445</v>
+        <v>0.17046140341251981</v>
       </c>
       <c r="AJ4" s="16">
         <f t="shared" si="0"/>
-        <v>0.13347547974413643</v>
+        <v>0.12008999718758795</v>
       </c>
       <c r="AK4" s="17">
         <f>(AE4+AD4+AC4)/3</f>
@@ -3569,7 +3892,7 @@
         <v>0.10131741926736419</v>
       </c>
       <c r="AN4" s="17">
-        <f>(AE105+AD105+AC105)/3</f>
+        <f>(AE106+AD106+AC106)/3</f>
         <v>0.19780412726701738</v>
       </c>
     </row>
@@ -3763,16 +4086,16 @@
         <v>10320000000</v>
       </c>
       <c r="AK6" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL6" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AL6" s="19" t="s">
+      <c r="AN6" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="AM6" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -3882,7 +4205,7 @@
         <v>0.1623</v>
       </c>
       <c r="AN7" s="20">
-        <f>AE106/AE3</f>
+        <f>AE107/AE3</f>
         <v>0.28760018859028758</v>
       </c>
     </row>
@@ -3891,16 +4214,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="1">
         <v>53400000</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F8" s="1">
         <v>93000000</v>
@@ -3983,7 +4306,7 @@
     </row>
     <row r="9" spans="1:40" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15" t="e">
         <f>B8/B3</f>
@@ -4106,16 +4429,16 @@
         <v>0.18442558541568443</v>
       </c>
       <c r="AK9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AL9" s="19" t="s">
+      <c r="AM9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AM9" s="19" t="s">
+      <c r="AN9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="AN9" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -4123,52 +4446,52 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R10" s="1">
         <v>288101000</v>
@@ -4234,52 +4557,52 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R11" s="1">
         <v>927174000</v>
@@ -4419,21 +4742,21 @@
         <v>4986000000</v>
       </c>
       <c r="AK12" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL12" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="AL12" s="19" t="s">
+      <c r="AN12" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="AM12" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="AN12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -4619,13 +4942,13 @@
         <v>9902000</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="1">
         <v>4000000</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S14" s="1">
         <v>42000000</v>
@@ -4762,16 +5085,16 @@
         <v>7749000000</v>
       </c>
       <c r="AK15" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL15" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AL15" s="19" t="s">
+      <c r="AN15" s="19" t="s">
         <v>122</v>
-      </c>
-      <c r="AM15" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="AN15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -4868,74 +5191,74 @@
       <c r="AE16" s="1">
         <v>10155000000</v>
       </c>
-      <c r="AK16" s="29">
+      <c r="AK16" s="25">
         <f>(AE35+AD35+AC35+AB35+AA35)/5</f>
         <v>1.7175640451502518E-2</v>
       </c>
-      <c r="AL16" s="30">
+      <c r="AL16" s="56">
         <f>AM101/AE3</f>
         <v>9.9215869203206033</v>
       </c>
-      <c r="AM16" s="30">
+      <c r="AM16" s="56">
         <f>AM101/AE28</f>
         <v>61.114286131655369</v>
       </c>
-      <c r="AN16" s="31">
-        <f>AM101/AE106</f>
+      <c r="AN16" s="57">
+        <f>AM101/AE107</f>
         <v>34.497845668852456</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R17" s="1">
         <v>51184000</v>
@@ -4980,7 +5303,7 @@
         <v>81000000</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -5075,10 +5398,19 @@
         <v>746000000</v>
       </c>
       <c r="AK18" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
+      </c>
+      <c r="AL18" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="AM18" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="AN18" s="19" t="s">
+        <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -5172,14 +5504,43 @@
       <c r="AE19" s="10">
         <v>3369000000</v>
       </c>
-      <c r="AK19" s="32">
+      <c r="AF19" s="60">
+        <v>5631000000</v>
+      </c>
+      <c r="AG19" s="60">
+        <v>6320000000</v>
+      </c>
+      <c r="AH19" s="60">
+        <v>7231000000</v>
+      </c>
+      <c r="AI19" s="60">
+        <f>AH19*(1+AI4)</f>
+        <v>8463606408.0759306</v>
+      </c>
+      <c r="AJ19" s="60">
+        <f>AI19*(1+AJ4)</f>
+        <v>9480000877.8186207</v>
+      </c>
+      <c r="AK19" s="26">
         <f>AE40-AE56-AE61</f>
         <v>-4259000000</v>
       </c>
+      <c r="AL19" s="56">
+        <f>AM101/AF3</f>
+        <v>8.8295185418181816</v>
+      </c>
+      <c r="AM19" s="56">
+        <f>AM101/AF28</f>
+        <v>31.35389002930221</v>
+      </c>
+      <c r="AN19" s="57">
+        <f>AM101/AF105</f>
+        <v>35.734131649709035</v>
+      </c>
     </row>
-    <row r="20" spans="1:37" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -5195,7 +5556,7 @@
         <v>0.4929906542056075</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:AE20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:AJ20" si="3">(F19/E19)-1</f>
         <v>1.1862284820031297</v>
       </c>
       <c r="G20" s="15">
@@ -5298,8 +5659,28 @@
         <f t="shared" si="3"/>
         <v>0.14280868385345991</v>
       </c>
+      <c r="AF20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.67141585040071239</v>
+      </c>
+      <c r="AG20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.12235837329071209</v>
+      </c>
+      <c r="AH20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.14414556962025316</v>
+      </c>
+      <c r="AI20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.17046140341251981</v>
+      </c>
+      <c r="AJ20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.12008999718758795</v>
+      </c>
     </row>
-    <row r="21" spans="1:37" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -5393,8 +5774,34 @@
       <c r="AE21" s="2">
         <v>0.26469999999999999</v>
       </c>
+      <c r="AF21" s="61">
+        <f>AF19/AF3</f>
+        <v>0.39377622377622379</v>
+      </c>
+      <c r="AG21" s="61">
+        <f t="shared" ref="AG21:AJ21" si="4">AG19/AG3</f>
+        <v>0.39554387282513453</v>
+      </c>
+      <c r="AH21" s="61">
+        <f t="shared" si="4"/>
+        <v>0.39671915290503101</v>
+      </c>
+      <c r="AI21" s="61">
+        <f t="shared" si="4"/>
+        <v>0.39671915290503096</v>
+      </c>
+      <c r="AJ21" s="61">
+        <f t="shared" si="4"/>
+        <v>0.39671915290503101</v>
+      </c>
+      <c r="AM21" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="AN21" s="19" t="s">
+        <v>166</v>
+      </c>
     </row>
-    <row r="22" spans="1:37" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -5488,8 +5895,16 @@
       <c r="AE22" s="10">
         <v>2571000000</v>
       </c>
+      <c r="AM22" s="58">
+        <f>AE98/AM101*-1</f>
+        <v>6.1301048148349529E-3</v>
+      </c>
+      <c r="AN22" s="59">
+        <f>AE107/AM101</f>
+        <v>2.8987317341467606E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:37" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -5584,7 +5999,7 @@
         <v>0.20200000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -5652,7 +6067,7 @@
         <v>-23000000</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X24" s="1">
         <v>-26000000</v>
@@ -5679,7 +6094,7 @@
         <v>-29000000</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -5774,7 +6189,7 @@
         <v>2542000000</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -5869,7 +6284,7 @@
         <v>0.19969999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -5964,7 +6379,7 @@
         <v>476000000</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:40" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -6058,10 +6473,25 @@
       <c r="AE28" s="11">
         <v>2066000000</v>
       </c>
+      <c r="AF28" s="62">
+        <v>4027000000</v>
+      </c>
+      <c r="AG28" s="62">
+        <v>4598000000</v>
+      </c>
+      <c r="AH28" s="62">
+        <v>5348000000</v>
+      </c>
+      <c r="AI28" s="62">
+        <v>6394000000</v>
+      </c>
+      <c r="AJ28" s="62">
+        <v>7746000000</v>
+      </c>
     </row>
-    <row r="29" spans="1:37" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -6077,111 +6507,131 @@
         <v>-0.54405286343612336</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:AE29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:AJ29" si="5">(F28/E28)-1</f>
         <v>-4.2995169082125599</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.1786237188872621</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-31.860655737704917</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.18815139442231077</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.270865435891396</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.6928967424782289</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4474457762557078</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-7.5805896791571681E-2</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.20375674226413909</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.2593029319204323E-2</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.5256701433940236E-2</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.3542612209462241E-2</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-6.2339280395669161E-2</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.28399855941625041</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10452961672473871</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.24921135646687698</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.3333333333333259E-2</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.7109557109557008E-2</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.59757442116868797</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6821917808219178</v>
       </c>
       <c r="Z29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-8.1716036772216949E-3</v>
       </c>
       <c r="AA29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.24716786817713698</v>
       </c>
       <c r="AB29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.28571428571428581</v>
       </c>
       <c r="AC29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.17276814386640971</v>
       </c>
       <c r="AD29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.12924424972617743</v>
       </c>
       <c r="AE29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9398642095054264E-3</v>
       </c>
+      <c r="AF29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.94917715392061952</v>
+      </c>
+      <c r="AG29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.14179289793891225</v>
+      </c>
+      <c r="AH29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.16311439756415824</v>
+      </c>
+      <c r="AI29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.19558713537771122</v>
+      </c>
+      <c r="AJ29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.21144823271817326</v>
+      </c>
     </row>
-    <row r="30" spans="1:37" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -6275,8 +6725,28 @@
       <c r="AE30" s="2">
         <v>0.1623</v>
       </c>
+      <c r="AF30" s="63">
+        <f>AF28/AF3</f>
+        <v>0.28160839160839163</v>
+      </c>
+      <c r="AG30" s="63">
+        <f t="shared" ref="AG30:AJ30" si="6">AG28/AG3</f>
+        <v>0.28777068469145073</v>
+      </c>
+      <c r="AH30" s="63">
+        <f t="shared" si="6"/>
+        <v>0.29341087397816429</v>
+      </c>
+      <c r="AI30" s="63">
+        <f t="shared" si="6"/>
+        <v>0.29970938408174747</v>
+      </c>
+      <c r="AJ30" s="63">
+        <f t="shared" si="6"/>
+        <v>0.32415467023769667</v>
+      </c>
     </row>
-    <row r="31" spans="1:37" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -6370,8 +6840,23 @@
       <c r="AE31" s="12">
         <v>7.38</v>
       </c>
+      <c r="AF31" s="64">
+        <v>14.38</v>
+      </c>
+      <c r="AG31" s="64">
+        <v>16.420000000000002</v>
+      </c>
+      <c r="AH31" s="64">
+        <v>19.09</v>
+      </c>
+      <c r="AI31" s="64">
+        <v>22.83</v>
+      </c>
+      <c r="AJ31" s="64">
+        <v>27.66</v>
+      </c>
     </row>
-    <row r="32" spans="1:37" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -6658,7 +7143,7 @@
     </row>
     <row r="35" spans="1:31" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -6666,115 +7151,115 @@
         <v>0.40702314285714286</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:AE35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:AE35" si="7">(D34-C34)/C34</f>
         <v>0.24581870518527363</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.10386321768259342</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.6293306607012339E-2</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.1862429116450763E-2</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.28222884290200501</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.10562149376203633</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.567654813012671E-2</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.7788265956270226E-2</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.1859089386269662E-2</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-5.1546538361261877E-2</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-5.839135150264143E-2</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4.332583148441066E-2</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.2916434331749294E-2</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-4.6504503744923625E-2</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.6757607555089193E-2</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.5718222841394347E-2</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.4615384615384615E-2</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.7854889589905363E-2</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-6.5573770491803279E-3</v>
       </c>
       <c r="W35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.9603960396039604E-2</v>
       </c>
       <c r="X35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.7182130584192441E-2</v>
       </c>
       <c r="Y35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-7.3426573426573424E-2</v>
       </c>
       <c r="Z35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.509433962264151E-2</v>
       </c>
       <c r="AA35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.1494252873563218E-2</v>
       </c>
       <c r="AC35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.4090909090909088E-2</v>
       </c>
       <c r="AE35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.0293040293040296E-2</v>
       </c>
     </row>
@@ -6783,94 +7268,94 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:31" ht="21" x14ac:dyDescent="0.25">
@@ -6878,94 +7363,94 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -6973,13 +7458,13 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E38" s="1">
         <v>44600000</v>
@@ -7068,22 +7553,22 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1">
         <v>736400000</v>
@@ -7163,13 +7648,13 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E40" s="1">
         <v>44600000</v>
@@ -7258,13 +7743,13 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E41" s="1">
         <v>49500000</v>
@@ -7353,13 +7838,13 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1">
         <v>4400000</v>
@@ -7374,73 +7859,73 @@
         <v>4900000</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -7448,13 +7933,13 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E43" s="1">
         <v>181900000</v>
@@ -7543,13 +8028,13 @@
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E44" s="10">
         <v>280400000</v>
@@ -7638,13 +8123,13 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E45" s="1">
         <v>95600000</v>
@@ -7733,28 +8218,28 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J46" s="1">
         <v>326986000</v>
@@ -7763,13 +8248,13 @@
         <v>428948000</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O46" s="1">
         <v>504991000</v>
@@ -7828,13 +8313,13 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1">
         <v>31600000</v>
@@ -7923,13 +8408,13 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="1">
         <v>31600000</v>
@@ -8018,52 +8503,52 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R49" s="1">
         <v>97095000</v>
@@ -8113,28 +8598,28 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1">
         <v>145905000</v>
@@ -8173,13 +8658,13 @@
         <v>6000000</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y50" s="1">
         <v>139000000</v>
@@ -8191,7 +8676,7 @@
         <v>87000000</v>
       </c>
       <c r="AB50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC50" s="1">
         <v>65000000</v>
@@ -8208,13 +8693,13 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E51" s="1">
         <v>10400000</v>
@@ -8303,13 +8788,13 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E52" s="1">
         <v>137600000</v>
@@ -8398,94 +8883,94 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:31" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -8493,13 +8978,13 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E54" s="11">
         <v>418000000</v>
@@ -8588,13 +9073,13 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E55" s="1">
         <v>34000000</v>
@@ -8683,25 +9168,25 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I56" s="1">
         <v>2580000</v>
@@ -8713,43 +9198,43 @@
         <v>17926000</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T56" s="1">
         <v>500000000</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y56" s="1">
         <v>512000000</v>
@@ -8778,52 +9263,52 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R57" s="1">
         <v>358000</v>
@@ -8832,37 +9317,37 @@
         <v>14000000</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V57" s="1">
         <v>2000000</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE57" s="1">
         <v>48000000</v>
@@ -8873,28 +9358,28 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J58" s="1">
         <v>125018000</v>
@@ -8968,13 +9453,13 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E59" s="1">
         <v>76700000</v>
@@ -9063,13 +9548,13 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E60" s="10">
         <v>110700000</v>
@@ -9158,13 +9643,13 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1">
         <v>5600000</v>
@@ -9253,70 +9738,70 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X62" s="1">
         <v>152000000</v>
@@ -9331,13 +9816,13 @@
         <v>197000000</v>
       </c>
       <c r="AB62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE62" s="1">
         <v>6000000</v>
@@ -9348,13 +9833,13 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1">
         <v>2500000</v>
@@ -9363,67 +9848,67 @@
         <v>600000</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB63" s="1">
         <v>37000000</v>
@@ -9443,46 +9928,46 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G64" s="1">
         <v>-100000</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P64" s="1">
         <v>57756000</v>
@@ -9538,13 +10023,13 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E65" s="1">
         <v>8100000</v>
@@ -9633,94 +10118,94 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -9728,13 +10213,13 @@
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E67" s="10">
         <v>118800000</v>
@@ -9823,22 +10308,22 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H68" s="1">
         <v>600000</v>
@@ -9918,13 +10403,13 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E69" s="1">
         <v>-231500000</v>
@@ -10013,13 +10498,13 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E70" s="1">
         <v>-5500000</v>
@@ -10108,13 +10593,13 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E71" s="1">
         <v>536200000</v>
@@ -10203,13 +10688,13 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E72" s="10">
         <v>299200000</v>
@@ -10298,13 +10783,13 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E73" s="11">
         <v>418000000</v>
@@ -10393,94 +10878,94 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:31" ht="21" x14ac:dyDescent="0.25">
@@ -10488,94 +10973,94 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -10782,7 +11267,7 @@
         <v>-16300000</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1">
         <v>-14500000</v>
@@ -10868,52 +11353,52 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R79" s="1">
         <v>132778000</v>
@@ -10960,126 +11445,126 @@
     </row>
     <row r="80" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:AE80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:AE80" si="8">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="L80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="M80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="N80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="O80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="P80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="R80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.1720803245963833E-2</v>
       </c>
       <c r="S80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.9073806078147609E-2</v>
       </c>
       <c r="T80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.972994027525318E-2</v>
       </c>
       <c r="U80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.0713081185256565E-2</v>
       </c>
       <c r="V80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.6751378566291059E-2</v>
       </c>
       <c r="W80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.5272969374167776E-2</v>
       </c>
       <c r="X80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.1307251908396948E-2</v>
       </c>
       <c r="Y80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.986365573072007E-2</v>
       </c>
       <c r="Z80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.2970832528491408E-2</v>
       </c>
       <c r="AA80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.4050972501676726E-2</v>
       </c>
       <c r="AB80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.9109669811320757E-2</v>
       </c>
       <c r="AC80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.6648001041802315E-2</v>
       </c>
       <c r="AD80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.816879476798505E-2</v>
       </c>
       <c r="AE80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.10278170674210278</v>
       </c>
     </row>
@@ -11183,52 +11668,52 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R82" s="1">
         <v>-17693000</v>
@@ -11299,130 +11784,130 @@
         <v>-1200000</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL83" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="AM83" s="63"/>
+        <v>91</v>
+      </c>
+      <c r="AL83" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM83" s="68"/>
     </row>
     <row r="84" spans="1:39" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R84" s="1">
         <v>-6855000</v>
@@ -11449,7 +11934,7 @@
         <v>-23000000</v>
       </c>
       <c r="Z84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA84" s="1">
         <v>12000000</v>
@@ -11466,53 +11951,53 @@
       <c r="AE84" s="1">
         <v>-95000000</v>
       </c>
-      <c r="AL84" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="AM84" s="65"/>
+      <c r="AL84" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM84" s="69"/>
     </row>
     <row r="85" spans="1:39" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O85" s="1">
         <v>-16284000</v>
@@ -11565,10 +12050,10 @@
       <c r="AE85" s="1">
         <v>-286000000</v>
       </c>
-      <c r="AL85" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AM85" s="24">
+      <c r="AL85" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM85" s="31">
         <f>AE17</f>
         <v>81000000</v>
       </c>
@@ -11667,10 +12152,10 @@
       <c r="AE86" s="1">
         <v>85000000</v>
       </c>
-      <c r="AL86" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="AM86" s="24">
+      <c r="AL86" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM86" s="31">
         <f>AE56</f>
         <v>583000000</v>
       </c>
@@ -11769,10 +12254,10 @@
       <c r="AE87" s="10">
         <v>3889000000</v>
       </c>
-      <c r="AL87" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM87" s="24">
+      <c r="AL87" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM87" s="31">
         <f>AE61</f>
         <v>6957000000</v>
       </c>
@@ -11871,142 +12356,142 @@
       <c r="AE88" s="1">
         <v>-157000000</v>
       </c>
-      <c r="AL88" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="AM88" s="34">
+      <c r="AL88" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="AM88" s="33">
         <f>AM85/(AM86+AM87)</f>
         <v>1.0742705570291777E-2</v>
       </c>
     </row>
     <row r="89" spans="1:39" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15">
+        <f t="shared" ref="B89:AE89" si="9">(-1*B88)/B3</f>
+        <v>4.0362438220757822E-2</v>
+      </c>
+      <c r="C89" s="15">
+        <f t="shared" si="9"/>
+        <v>9.2220504894384339E-2</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" si="9"/>
+        <v>8.3143795804902706E-2</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.12866691422205717</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.608448822841877E-2</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.6477138518643496</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.64204813591316656</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="9"/>
+        <v>8.6799990857769752E-2</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="9"/>
+        <v>6.1121192014656024E-2</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.1331440838430209E-2</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.1868028335286132E-2</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.7981493449300007E-2</v>
+      </c>
+      <c r="N89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.8739237268630415E-2</v>
+      </c>
+      <c r="O89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.5039873150484797E-2</v>
+      </c>
+      <c r="P89" s="15">
+        <f t="shared" si="9"/>
+        <v>5.7336340750490003E-2</v>
+      </c>
+      <c r="Q89" s="15">
+        <f t="shared" si="9"/>
+        <v>9.9554337695213033E-2</v>
+      </c>
+      <c r="R89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.112945112656978E-2</v>
+      </c>
+      <c r="S89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.141823444283647E-2</v>
+      </c>
+      <c r="T89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.9602700597247469E-2</v>
+      </c>
+      <c r="U89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.2522283787039266E-2</v>
+      </c>
+      <c r="V89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.0927835051546393E-2</v>
+      </c>
+      <c r="W89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.30803373280071E-2</v>
+      </c>
+      <c r="X89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.3874045801526718E-2</v>
+      </c>
+      <c r="Y89" s="15">
+        <f t="shared" si="9"/>
+        <v>8.862377503195569E-2</v>
+      </c>
+      <c r="Z89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.9702530423024917E-2</v>
+      </c>
+      <c r="AA89" s="15">
+        <f t="shared" si="9"/>
+        <v>6.371562709590879E-3</v>
+      </c>
+      <c r="AB89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.1202830188679245E-2</v>
+      </c>
+      <c r="AC89" s="15">
+        <f t="shared" si="9"/>
+        <v>7.6832920953249124E-3</v>
+      </c>
+      <c r="AD89" s="15">
+        <f t="shared" si="9"/>
+        <v>5.5019204816775663E-3</v>
+      </c>
+      <c r="AE89" s="15">
+        <f t="shared" si="9"/>
+        <v>1.2336947980512337E-2</v>
+      </c>
+      <c r="AL89" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15">
-        <f t="shared" ref="B89:AE89" si="7">(-1*B88)/B3</f>
-        <v>4.0362438220757822E-2</v>
-      </c>
-      <c r="C89" s="15">
-        <f t="shared" si="7"/>
-        <v>9.2220504894384339E-2</v>
-      </c>
-      <c r="D89" s="15">
-        <f t="shared" si="7"/>
-        <v>8.3143795804902706E-2</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.12866691422205717</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.608448822841877E-2</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.6477138518643496</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.64204813591316656</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="7"/>
-        <v>8.6799990857769752E-2</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.1121192014656024E-2</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.1331440838430209E-2</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.1868028335286132E-2</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.7981493449300007E-2</v>
-      </c>
-      <c r="N89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.8739237268630415E-2</v>
-      </c>
-      <c r="O89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.5039873150484797E-2</v>
-      </c>
-      <c r="P89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.7336340750490003E-2</v>
-      </c>
-      <c r="Q89" s="15">
-        <f t="shared" si="7"/>
-        <v>9.9554337695213033E-2</v>
-      </c>
-      <c r="R89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.112945112656978E-2</v>
-      </c>
-      <c r="S89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.141823444283647E-2</v>
-      </c>
-      <c r="T89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.9602700597247469E-2</v>
-      </c>
-      <c r="U89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.2522283787039266E-2</v>
-      </c>
-      <c r="V89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.0927835051546393E-2</v>
-      </c>
-      <c r="W89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.30803373280071E-2</v>
-      </c>
-      <c r="X89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.3874045801526718E-2</v>
-      </c>
-      <c r="Y89" s="15">
-        <f t="shared" si="7"/>
-        <v>8.862377503195569E-2</v>
-      </c>
-      <c r="Z89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.9702530423024917E-2</v>
-      </c>
-      <c r="AA89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.371562709590879E-3</v>
-      </c>
-      <c r="AB89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.1202830188679245E-2</v>
-      </c>
-      <c r="AC89" s="15">
-        <f t="shared" si="7"/>
-        <v>7.6832920953249124E-3</v>
-      </c>
-      <c r="AD89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.5019204816775663E-3</v>
-      </c>
-      <c r="AE89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.2336947980512337E-2</v>
-      </c>
-      <c r="AL89" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="AM89" s="24">
+      <c r="AM89" s="31">
         <f>AE27</f>
         <v>476000000</v>
       </c>
@@ -12016,25 +12501,25 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1">
         <v>-2074860000</v>
@@ -12070,7 +12555,7 @@
         <v>-96000000</v>
       </c>
       <c r="T90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U90" s="1">
         <v>-392000000</v>
@@ -12088,7 +12573,7 @@
         <v>463000000</v>
       </c>
       <c r="Z90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA90" s="1">
         <v>-363000000</v>
@@ -12097,7 +12582,7 @@
         <v>-64000000</v>
       </c>
       <c r="AC90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD90" s="1">
         <v>-3064000000</v>
@@ -12105,10 +12590,10 @@
       <c r="AE90" s="1">
         <v>-5682000000</v>
       </c>
-      <c r="AL90" s="23" t="s">
+      <c r="AL90" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="AM90" s="24">
+      <c r="AM90" s="31">
         <f>AE25</f>
         <v>2542000000</v>
       </c>
@@ -12207,10 +12692,10 @@
       <c r="AE91" s="1">
         <v>-830000000</v>
       </c>
-      <c r="AL91" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="AM91" s="34">
+      <c r="AL91" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="AM91" s="33">
         <f>AM89/AM90</f>
         <v>0.18725413060582219</v>
       </c>
@@ -12309,10 +12794,10 @@
       <c r="AE92" s="1">
         <v>1758000000</v>
       </c>
-      <c r="AL92" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="AM92" s="36">
+      <c r="AL92" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="AM92" s="33">
         <f>AM88*(1-AM91)</f>
         <v>8.7310895783724671E-3</v>
       </c>
@@ -12346,7 +12831,7 @@
         <v>-19270000</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K93" s="1">
         <v>-30875000</v>
@@ -12411,10 +12896,10 @@
       <c r="AE93" s="1">
         <v>-510000000</v>
       </c>
-      <c r="AL93" s="64" t="s">
-        <v>134</v>
-      </c>
-      <c r="AM93" s="65"/>
+      <c r="AL93" s="69" t="s">
+        <v>132</v>
+      </c>
+      <c r="AM93" s="69"/>
     </row>
     <row r="94" spans="1:39" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -12510,11 +12995,12 @@
       <c r="AE94" s="10">
         <v>-5421000000</v>
       </c>
-      <c r="AL94" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AM94" s="37">
-        <v>4.095E-2</v>
+      <c r="AL94" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM94" s="55">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -12522,73 +13008,73 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U95" s="1">
         <v>-500000000</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y95" s="1">
         <v>-995000000</v>
@@ -12609,12 +13095,12 @@
         <v>-1338000000</v>
       </c>
       <c r="AE95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL95" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="AM95" s="39" cm="1">
+        <v>91</v>
+      </c>
+      <c r="AL95" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM95" s="36" cm="1">
         <f t="array" ref="AM95">_FV(A1,"Beta")</f>
         <v>1.1822999999999999</v>
       </c>
@@ -12645,7 +13131,7 @@
         <v>126600000</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J96" s="1">
         <v>96800000</v>
@@ -12681,42 +13167,42 @@
         <v>338000000</v>
       </c>
       <c r="U96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL96" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="AM96" s="37">
+        <v>91</v>
+      </c>
+      <c r="AL96" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM96" s="34">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -12725,28 +13211,28 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J97" s="1">
         <v>-8365000</v>
@@ -12814,12 +13300,12 @@
       <c r="AE97" s="1">
         <v>-1861000000</v>
       </c>
-      <c r="AL97" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="AM97" s="36">
+      <c r="AL97" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM97" s="33">
         <f>(AM94)+((AM95)*(AM96-AM94))</f>
-        <v>9.1848015000000005E-2</v>
+        <v>9.2181624000000004E-2</v>
       </c>
     </row>
     <row r="98" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -12827,61 +13313,61 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U98" s="1">
         <v>-178000000</v>
@@ -12916,10 +13402,10 @@
       <c r="AE98" s="1">
         <v>-774000000</v>
       </c>
-      <c r="AL98" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="AM98" s="65"/>
+      <c r="AL98" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="AM98" s="69"/>
     </row>
     <row r="99" spans="1:39" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -12944,7 +13430,7 @@
         <v>-4800000</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I99" s="1">
         <v>59339000</v>
@@ -13015,10 +13501,10 @@
       <c r="AE99" s="1">
         <v>4367000000</v>
       </c>
-      <c r="AL99" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="AM99" s="24">
+      <c r="AL99" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM99" s="31">
         <f>AM86+AM87</f>
         <v>7540000000</v>
       </c>
@@ -13117,10 +13603,10 @@
       <c r="AE100" s="10">
         <v>1732000000</v>
       </c>
-      <c r="AL100" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="AM100" s="34">
+      <c r="AL100" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM100" s="33">
         <f>AM99/AM103</f>
         <v>5.6351874495107368E-2</v>
       </c>
@@ -13130,28 +13616,28 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J101" s="1">
         <v>2591000</v>
@@ -13219,10 +13705,10 @@
       <c r="AE101" s="1">
         <v>-22000000</v>
       </c>
-      <c r="AL101" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="AM101" s="40" cm="1">
+      <c r="AL101" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM101" s="37" cm="1">
         <f t="array" ref="AM101">_FV(A1,"Market cap",TRUE)</f>
         <v>126262115148</v>
       </c>
@@ -13321,10 +13807,10 @@
       <c r="AE102" s="10">
         <v>178000000</v>
       </c>
-      <c r="AL102" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="AM102" s="34">
+      <c r="AL102" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="AM102" s="33">
         <f>AM101/AM103</f>
         <v>0.94364812550489263</v>
       </c>
@@ -13423,10 +13909,10 @@
       <c r="AE103" s="1">
         <v>2819000000</v>
       </c>
-      <c r="AL103" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM103" s="41">
+      <c r="AL103" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM103" s="38">
         <f>AM99+AM101</f>
         <v>133802115148</v>
       </c>
@@ -13436,22 +13922,22 @@
         <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H104" s="11">
         <v>518300000</v>
@@ -13525,436 +14011,541 @@
       <c r="AE104" s="11">
         <v>2997000000</v>
       </c>
-      <c r="AL104" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM104" s="65"/>
+      <c r="AL104" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM104" s="69"/>
     </row>
     <row r="105" spans="1:39" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
-        <v>-2.2647058823529411</v>
-      </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
-        <v>-6.0697674418604652</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>-1.1788990825688073</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>-7.8589743589743586</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>-6.8990654205607473</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:AE105" si="8">(H106/G106)-1</f>
-        <v>0.49239543726235735</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.81129511677282373</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="8"/>
-        <v>-2.7564243924392438</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="8"/>
-        <v>2.4249412277161762</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="8"/>
-        <v>-2.9240411393174459E-2</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="8"/>
-        <v>6.3155420519154237E-3</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" si="8"/>
-        <v>7.1229047605372298E-2</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" si="8"/>
-        <v>-5.7268832693795901E-2</v>
-      </c>
-      <c r="P105" s="15">
-        <f t="shared" si="8"/>
-        <v>8.7258946378603097E-2</v>
-      </c>
-      <c r="Q105" s="15">
-        <f t="shared" si="8"/>
-        <v>-8.6207046868107096E-2</v>
-      </c>
-      <c r="R105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.20197762482754933</v>
-      </c>
-      <c r="S105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.35733245278705605</v>
-      </c>
-      <c r="T105" s="15">
-        <f t="shared" si="8"/>
-        <v>-8.1871345029239762E-2</v>
-      </c>
-      <c r="U105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.33757961783439483</v>
-      </c>
-      <c r="V105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.10190476190476194</v>
-      </c>
-      <c r="W105" s="15">
-        <f t="shared" si="8"/>
-        <v>7.605877268798622E-2</v>
-      </c>
-      <c r="X105" s="15">
-        <f t="shared" si="8"/>
-        <v>-1.6064257028112205E-3</v>
-      </c>
-      <c r="Y105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.2928399034593725</v>
-      </c>
-      <c r="Z105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.55745164960182025</v>
-      </c>
-      <c r="AA105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.45215485756026297</v>
-      </c>
-      <c r="AB105" s="15">
-        <f t="shared" si="8"/>
-        <v>9.1046277665995934E-2</v>
-      </c>
-      <c r="AC105" s="15">
-        <f t="shared" si="8"/>
-        <v>4.9792531120331995E-2</v>
-      </c>
-      <c r="AD105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.37241985068072014</v>
-      </c>
-      <c r="AE105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.17120000000000002</v>
-      </c>
-      <c r="AF105" s="15"/>
-      <c r="AG105" s="15"/>
-      <c r="AH105" s="15"/>
-      <c r="AI105" s="15"/>
-      <c r="AJ105" s="15"/>
-      <c r="AK105" s="15"/>
-      <c r="AL105" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AM105" s="26">
+        <v>157</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" ref="B105:AD105" si="10">(B22*(1-$AM$91))+B77+B88-B81</f>
+        <v>4628245.4760031477</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="10"/>
+        <v>-119237293.46970889</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="10"/>
+        <v>-1634618.4107002318</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="10"/>
+        <v>-11395200.629425652</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="10"/>
+        <v>9811487.0180959851</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="10"/>
+        <v>-332439496.4594807</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="10"/>
+        <v>-546526357.19905591</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="10"/>
+        <v>222832184.10700238</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="10"/>
+        <v>305703044.84657753</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="10"/>
+        <v>162504891.42407554</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="10"/>
+        <v>211747390.24390244</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="10"/>
+        <v>383467670.33831626</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="10"/>
+        <v>499957484.65774989</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="10"/>
+        <v>476804074.74429584</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="10"/>
+        <v>412816383.949646</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="10"/>
+        <v>409287191.18804097</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="10"/>
+        <v>784974447.67899287</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="10"/>
+        <v>764399685.28717542</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="10"/>
+        <v>1050435090.4799371</v>
+      </c>
+      <c r="U105" s="1">
+        <f t="shared" si="10"/>
+        <v>970601888.27694726</v>
+      </c>
+      <c r="V105" s="1">
+        <f t="shared" si="10"/>
+        <v>1049115656.9630213</v>
+      </c>
+      <c r="W105" s="1">
+        <f t="shared" si="10"/>
+        <v>1078948072.3839498</v>
+      </c>
+      <c r="X105" s="1">
+        <f t="shared" si="10"/>
+        <v>238806451.61290324</v>
+      </c>
+      <c r="Y105" s="1">
+        <f t="shared" si="10"/>
+        <v>661430369.78756881</v>
+      </c>
+      <c r="Z105" s="1">
+        <f t="shared" si="10"/>
+        <v>1222780487.804878</v>
+      </c>
+      <c r="AA105" s="1">
+        <f t="shared" si="10"/>
+        <v>1301680566.4830842</v>
+      </c>
+      <c r="AB105" s="1">
+        <f t="shared" si="10"/>
+        <v>1522830841.8568056</v>
+      </c>
+      <c r="AC105" s="1">
+        <f t="shared" si="10"/>
+        <v>1795535011.8017309</v>
+      </c>
+      <c r="AD105" s="1">
+        <f t="shared" si="10"/>
+        <v>2352864673.4854445</v>
+      </c>
+      <c r="AE105" s="1">
+        <f>(AE22*(1-$AM$91))+AE77+AE88-AE81</f>
+        <v>3114569630.212431</v>
+      </c>
+      <c r="AF105" s="27">
+        <f>AE105*(1+$AM$106)</f>
+        <v>3533375776.0146408</v>
+      </c>
+      <c r="AG105" s="27">
+        <f t="shared" ref="AG105:AJ105" si="11">AF105*(1+$AM$106)</f>
+        <v>4008497435.2220654</v>
+      </c>
+      <c r="AH105" s="27">
+        <f t="shared" si="11"/>
+        <v>4547507173.5238209</v>
+      </c>
+      <c r="AI105" s="27">
+        <f t="shared" si="11"/>
+        <v>5158995815.1251698</v>
+      </c>
+      <c r="AJ105" s="27">
+        <f t="shared" si="11"/>
+        <v>5852709364.6902628</v>
+      </c>
+      <c r="AK105" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="AL105" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM105" s="40">
         <f>(AM100*AM92)+(AM102*AM97)</f>
-        <v>8.716422045022125E-2</v>
+        <v>8.7479029957722818E-2</v>
       </c>
     </row>
     <row r="106" spans="1:39" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
-        <v>6800000</v>
-      </c>
-      <c r="C106" s="1">
-        <v>-8600000</v>
-      </c>
-      <c r="D106" s="1">
-        <v>43600000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>-7800000</v>
-      </c>
-      <c r="F106" s="1">
-        <v>53500000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>-315600000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>-471000000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>-88880000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>156111000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>534671000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>519037000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>522315000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>559519000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>527476000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>573503000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>524063000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>629912000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>855000000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>785000000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>1050000000</v>
-      </c>
-      <c r="V106" s="1">
-        <v>1157000000</v>
-      </c>
-      <c r="W106" s="1">
-        <v>1245000000</v>
-      </c>
-      <c r="X106" s="1">
-        <v>1243000000</v>
-      </c>
-      <c r="Y106" s="1">
-        <v>879000000</v>
-      </c>
-      <c r="Z106" s="1">
-        <v>1369000000</v>
-      </c>
-      <c r="AA106" s="1">
-        <v>1988000000</v>
-      </c>
-      <c r="AB106" s="1">
-        <v>2169000000</v>
-      </c>
-      <c r="AC106" s="1">
-        <v>2277000000</v>
-      </c>
-      <c r="AD106" s="1">
-        <v>3125000000</v>
-      </c>
-      <c r="AE106" s="1">
-        <v>3660000000</v>
-      </c>
-      <c r="AF106" s="42">
-        <f>AE106*(1+$AM$106)</f>
-        <v>4153078756.7414675</v>
-      </c>
-      <c r="AG106" s="42">
-        <f t="shared" ref="AG106:AJ106" si="9">AF106*(1+$AM$106)</f>
-        <v>4712585562.758812</v>
-      </c>
-      <c r="AH106" s="42">
-        <f t="shared" si="9"/>
-        <v>5347469669.4044142</v>
-      </c>
-      <c r="AI106" s="42">
-        <f t="shared" si="9"/>
-        <v>6067885979.8696146</v>
-      </c>
-      <c r="AJ106" s="42">
-        <f t="shared" si="9"/>
-        <v>6885357475.7720985</v>
-      </c>
-      <c r="AK106" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="AL106" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM106" s="45">
+      <c r="A106" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f t="shared" ref="C106:AE106" si="12">(C107/B107)-1</f>
+        <v>-2.2647058823529411</v>
+      </c>
+      <c r="D106" s="15">
+        <f t="shared" si="12"/>
+        <v>-6.0697674418604652</v>
+      </c>
+      <c r="E106" s="15">
+        <f t="shared" si="12"/>
+        <v>-1.1788990825688073</v>
+      </c>
+      <c r="F106" s="15">
+        <f t="shared" si="12"/>
+        <v>-7.8589743589743586</v>
+      </c>
+      <c r="G106" s="15">
+        <f t="shared" si="12"/>
+        <v>-6.8990654205607473</v>
+      </c>
+      <c r="H106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.49239543726235735</v>
+      </c>
+      <c r="I106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.81129511677282373</v>
+      </c>
+      <c r="J106" s="15">
+        <f t="shared" si="12"/>
+        <v>-2.7564243924392438</v>
+      </c>
+      <c r="K106" s="15">
+        <f t="shared" si="12"/>
+        <v>2.4249412277161762</v>
+      </c>
+      <c r="L106" s="15">
+        <f t="shared" si="12"/>
+        <v>-2.9240411393174459E-2</v>
+      </c>
+      <c r="M106" s="15">
+        <f t="shared" si="12"/>
+        <v>6.3155420519154237E-3</v>
+      </c>
+      <c r="N106" s="15">
+        <f t="shared" si="12"/>
+        <v>7.1229047605372298E-2</v>
+      </c>
+      <c r="O106" s="15">
+        <f t="shared" si="12"/>
+        <v>-5.7268832693795901E-2</v>
+      </c>
+      <c r="P106" s="15">
+        <f t="shared" si="12"/>
+        <v>8.7258946378603097E-2</v>
+      </c>
+      <c r="Q106" s="15">
+        <f t="shared" si="12"/>
+        <v>-8.6207046868107096E-2</v>
+      </c>
+      <c r="R106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.20197762482754933</v>
+      </c>
+      <c r="S106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.35733245278705605</v>
+      </c>
+      <c r="T106" s="15">
+        <f t="shared" si="12"/>
+        <v>-8.1871345029239762E-2</v>
+      </c>
+      <c r="U106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.33757961783439483</v>
+      </c>
+      <c r="V106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.10190476190476194</v>
+      </c>
+      <c r="W106" s="15">
+        <f t="shared" si="12"/>
+        <v>7.605877268798622E-2</v>
+      </c>
+      <c r="X106" s="15">
+        <f t="shared" si="12"/>
+        <v>-1.6064257028112205E-3</v>
+      </c>
+      <c r="Y106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.2928399034593725</v>
+      </c>
+      <c r="Z106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.55745164960182025</v>
+      </c>
+      <c r="AA106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.45215485756026297</v>
+      </c>
+      <c r="AB106" s="15">
+        <f t="shared" si="12"/>
+        <v>9.1046277665995934E-2</v>
+      </c>
+      <c r="AC106" s="15">
+        <f t="shared" si="12"/>
+        <v>4.9792531120331995E-2</v>
+      </c>
+      <c r="AD106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.37241985068072014</v>
+      </c>
+      <c r="AE106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.17120000000000002</v>
+      </c>
+      <c r="AF106" s="53">
+        <v>4529000000</v>
+      </c>
+      <c r="AG106" s="53">
+        <v>5060000000</v>
+      </c>
+      <c r="AH106" s="53">
+        <v>5816000000</v>
+      </c>
+      <c r="AI106" s="53">
+        <v>7042000000</v>
+      </c>
+      <c r="AJ106" s="53">
+        <f>AI106*1.13</f>
+        <v>7957459999.999999</v>
+      </c>
+      <c r="AK106" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL106" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM106" s="42">
         <f>(SUM(AF4:AJ4)/5)</f>
-        <v>0.13472097178728609</v>
+        <v>0.13446677888965519</v>
       </c>
     </row>
     <row r="107" spans="1:39" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="13"/>
-      <c r="Y107" s="13"/>
-      <c r="Z107" s="13"/>
-      <c r="AA107" s="13"/>
-      <c r="AB107" s="13"/>
-      <c r="AC107" s="13"/>
-      <c r="AD107" s="13"/>
-      <c r="AE107" s="13"/>
-      <c r="AF107" s="43"/>
-      <c r="AG107" s="43"/>
-      <c r="AH107" s="43"/>
-      <c r="AI107" s="43"/>
-      <c r="AJ107" s="46">
+      <c r="A107" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="B107" s="1">
+        <v>6800000</v>
+      </c>
+      <c r="C107" s="1">
+        <v>-8600000</v>
+      </c>
+      <c r="D107" s="1">
+        <v>43600000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>-7800000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>53500000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>-315600000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>-471000000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>-88880000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>156111000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>534671000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>519037000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>522315000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>559519000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>527476000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>573503000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>524063000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>629912000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>855000000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>785000000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>1050000000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>1157000000</v>
+      </c>
+      <c r="W107" s="1">
+        <v>1245000000</v>
+      </c>
+      <c r="X107" s="1">
+        <v>1243000000</v>
+      </c>
+      <c r="Y107" s="1">
+        <v>879000000</v>
+      </c>
+      <c r="Z107" s="1">
+        <v>1369000000</v>
+      </c>
+      <c r="AA107" s="1">
+        <v>1988000000</v>
+      </c>
+      <c r="AB107" s="1">
+        <v>2169000000</v>
+      </c>
+      <c r="AC107" s="1">
+        <v>2277000000</v>
+      </c>
+      <c r="AD107" s="1">
+        <v>3125000000</v>
+      </c>
+      <c r="AE107" s="1">
+        <v>3660000000</v>
+      </c>
+      <c r="AF107" s="28"/>
+      <c r="AG107" s="28"/>
+      <c r="AH107" s="28"/>
+      <c r="AI107" s="28"/>
+      <c r="AJ107" s="54">
         <f>AJ106*(1+AM107)/(AM108-AM107)</f>
-        <v>113529798355.91716</v>
-      </c>
-      <c r="AK107" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL107" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="AM107" s="49">
+        <v>130546144930.85315</v>
+      </c>
+      <c r="AK107" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL107" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM107" s="44">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:39" ht="19" x14ac:dyDescent="0.25">
-      <c r="AF108" s="46">
-        <f t="shared" ref="AF108:AH108" si="10">AF107+AF106</f>
-        <v>4153078756.7414675</v>
-      </c>
-      <c r="AG108" s="46">
-        <f t="shared" si="10"/>
-        <v>4712585562.758812</v>
-      </c>
-      <c r="AH108" s="46">
-        <f t="shared" si="10"/>
-        <v>5347469669.4044142</v>
-      </c>
-      <c r="AI108" s="46">
-        <f>AI107+AI106</f>
-        <v>6067885979.8696146</v>
-      </c>
-      <c r="AJ108" s="46">
+      <c r="AF108" s="54">
+        <f t="shared" ref="AF108:AI108" si="13">AF107+AF106</f>
+        <v>4529000000</v>
+      </c>
+      <c r="AG108" s="54">
+        <f t="shared" si="13"/>
+        <v>5060000000</v>
+      </c>
+      <c r="AH108" s="54">
+        <f t="shared" si="13"/>
+        <v>5816000000</v>
+      </c>
+      <c r="AI108" s="54">
+        <f t="shared" si="13"/>
+        <v>7042000000</v>
+      </c>
+      <c r="AJ108" s="54">
         <f>AJ107+AJ106</f>
-        <v>120415155831.68925</v>
-      </c>
-      <c r="AK108" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="AL108" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="AM108" s="51">
+        <v>138503604930.85315</v>
+      </c>
+      <c r="AK108" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL108" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM108" s="42">
         <f>AM105</f>
-        <v>8.716422045022125E-2</v>
+        <v>8.7479029957722818E-2</v>
       </c>
     </row>
     <row r="109" spans="1:39" ht="19" x14ac:dyDescent="0.25">
-      <c r="AF109" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG109" s="61"/>
+      <c r="AF109" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG109" s="66"/>
     </row>
     <row r="110" spans="1:39" ht="20" x14ac:dyDescent="0.25">
-      <c r="AF110" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="AG110" s="40">
+      <c r="AF110" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG110" s="37">
         <f>NPV(AM108,AF108,AG108,AH108,AI108,AJ108)</f>
-        <v>95600228061.878723</v>
+        <v>109066898083.05861</v>
       </c>
     </row>
     <row r="111" spans="1:39" ht="20" x14ac:dyDescent="0.25">
-      <c r="AF111" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG111" s="40">
+      <c r="AF111" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG111" s="37">
         <f>AE40</f>
         <v>3281000000</v>
       </c>
     </row>
     <row r="112" spans="1:39" ht="20" x14ac:dyDescent="0.25">
-      <c r="AF112" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG112" s="40">
+      <c r="AF112" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG112" s="37">
         <f>AM99</f>
         <v>7540000000</v>
       </c>
     </row>
     <row r="113" spans="32:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="AF113" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="AG113" s="40">
+      <c r="AF113" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG113" s="37">
         <f>AG110+AG111-AG112</f>
-        <v>91341228061.878723</v>
+        <v>104807898083.05861</v>
       </c>
     </row>
     <row r="114" spans="32:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="AF114" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="AG114" s="53">
+      <c r="AF114" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG114" s="46">
         <f>AE34*(1+(5*AK16))</f>
         <v>308389409.44113362</v>
       </c>
     </row>
     <row r="115" spans="32:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="AF115" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="AG115" s="55">
+      <c r="AF115" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG115" s="48">
         <f>AG113/AG114</f>
-        <v>296.1879534949278</v>
+        <v>339.85569826471192</v>
       </c>
     </row>
     <row r="116" spans="32:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="AF116" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="AG116" s="56" cm="1">
+      <c r="AF116" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG116" s="49" cm="1">
         <f t="array" ref="AG116">_FV(A1,"Price")</f>
         <v>450.84</v>
       </c>
     </row>
     <row r="117" spans="32:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="AF117" s="57" t="s">
-        <v>158</v>
-      </c>
-      <c r="AG117" s="58">
+      <c r="AF117" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG117" s="50">
         <f>AG115/AG116-1</f>
-        <v>-0.34303089012747801</v>
+        <v>-0.24617226008182069</v>
       </c>
     </row>
     <row r="118" spans="32:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="AF118" s="57" t="s">
-        <v>159</v>
-      </c>
-      <c r="AG118" s="59" t="str">
+      <c r="AF118" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG118" s="51" t="str">
         <f>IF(AG115&gt;AG116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -14031,8 +14622,9 @@
     <hyperlink ref="AE36" r:id="rId60" tooltip="https://www.sec.gov/Archives/edgar/data/896878/000089687822000028/0000896878-22-000028-index.htm" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
     <hyperlink ref="AE74" r:id="rId61" tooltip="https://www.sec.gov/Archives/edgar/data/896878/000089687822000028/0000896878-22-000028-index.htm" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
     <hyperlink ref="AF1" r:id="rId62" display="https://finbox.com/NASDAQGS:INTU/explorer/revenue_proj" xr:uid="{EC89985F-9EE4-1F43-9ECB-63B4A4BB138E}"/>
+    <hyperlink ref="AK106" r:id="rId63" xr:uid="{D17241E1-2224-B246-8215-B562112E5C7F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId63"/>
+  <drawing r:id="rId64"/>
 </worksheet>
 </file>
--- a/Technology/Software/Intuit.xlsx
+++ b/Technology/Software/Intuit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5FCC36-9B43-5545-9192-F9F70B7102C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F03CFA-D925-7549-9F1E-C74C04FAE3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2630,20 +2630,23 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Fidelity Growth"/>
+      <sheetName val="IRA"/>
+      <sheetName val="Best Mature"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="Hedge Fund Portfolio"/>
+      <sheetName val="Scored Portfolio"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>3.9120000000000002E-2</v>
+            <v>4.3220000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2663,6 +2666,9 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2788,36 +2794,39 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>490.83</v>
+    <v>558.64</v>
     <v>352.63</v>
-    <v>1.1822999999999999</v>
-    <v>0.31</v>
-    <v>6.8809999999999997E-4</v>
+    <v>1.1851</v>
+    <v>-3.07</v>
+    <v>-5.705E-3</v>
+    <v>0.38</v>
+    <v>7.1029999999999997E-4</v>
     <v>USD</v>
-    <v>Intuit Inc. is a global technology platform that helps consumers, small businesses, and the self-employed prosper by delivering financial management and compliance products and services. The Company operates through four segments: Small Business &amp; Self-Employed, Consumer, Credit Karma and ProConnect. Small Business &amp; Self-Employed segment serves small businesses and the self-employed around the world, and the accounting professionals who assist and advise them. Its offerings include QuickBooks financial and business management online services and desktop software, payroll solutions, time tracking, merchant payment processing solutions, and financing for small businesses. The Consumer segment serves consumers and includes do-it-yourself and assisted TurboTax income tax preparation products and services. Credit Karma segment serves consumers with a personal finance platform that provides personalized recommendations of credit card, home, auto and personal loans, and insurance products.</v>
-    <v>17300</v>
+    <v>Intuit Inc. is a global financial technology platform that helps consumers and small businesses prosper by delivering financial management, compliance, and marketing products and services. The Company operates through four segments: Small Business &amp; Self-Employed, Consumer, Credit Karma and ProTax. The Small Business &amp; Self-Employed segment serves small businesses and the self-employed around the world, and the accounting professionals who assist and advise them. Its offerings include QuickBooks financial and business management online services and desktop software, payroll solutions, time tracking, merchant payment processing solutions, and financing for small businesses. The Consumer segment serves consumers and includes do-it-yourself and assisted TurboTax income tax preparation products and services. Credit Karma segment serves consumers with a personal finance platform that provides personalized recommendations of credit card, home, auto and personal loans, and insurance products.</v>
+    <v>18200</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>2700 Coast Avenue, MOUNTAIN VIEW, CA, 94043 US</v>
-    <v>451.76</v>
+    <v>538.42999999999995</v>
     <v>Financial Technology (Fintech) &amp; Infrastructure</v>
     <v>Stock</v>
-    <v>45099.980490960159</v>
+    <v>45187.997367823438</v>
     <v>0</v>
-    <v>445.65</v>
-    <v>126262115148</v>
+    <v>533.75</v>
+    <v>149941635095</v>
     <v>INTUIT INC.</v>
     <v>INTUIT INC.</v>
-    <v>448.75</v>
-    <v>56.972700000000003</v>
-    <v>450.53</v>
-    <v>450.84</v>
-    <v>280059700</v>
+    <v>536.32000000000005</v>
+    <v>63.497799999999998</v>
+    <v>538.08000000000004</v>
+    <v>535.01</v>
+    <v>535.39</v>
+    <v>280259500</v>
     <v>INTU</v>
     <v>INTUIT INC. (XNAS:INTU)</v>
-    <v>472</v>
-    <v>2370558</v>
+    <v>886950</v>
+    <v>1391880</v>
     <v>1993</v>
   </rv>
   <rv s="2">
@@ -2849,6 +2858,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2869,6 +2880,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2885,7 +2897,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2896,13 +2908,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2968,13 +2983,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -3019,6 +3040,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -3026,6 +3050,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3387,10 +3414,10 @@
   <dimension ref="A1:AN118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AC87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AG94" sqref="AG94"/>
+      <selection pane="bottomRight" activeCell="AF101" sqref="AF101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5197,15 +5224,15 @@
       </c>
       <c r="AL16" s="56">
         <f>AM101/AE3</f>
-        <v>9.9215869203206033</v>
+        <v>11.782306702420241</v>
       </c>
       <c r="AM16" s="56">
         <f>AM101/AE28</f>
-        <v>61.114286131655369</v>
+        <v>72.575815631655374</v>
       </c>
       <c r="AN16" s="57">
         <f>AM101/AE107</f>
-        <v>34.497845668852456</v>
+        <v>40.967659862021861</v>
       </c>
     </row>
     <row r="17" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -5527,15 +5554,15 @@
       </c>
       <c r="AL19" s="56">
         <f>AM101/AF3</f>
-        <v>8.8295185418181816</v>
+        <v>10.485429027622377</v>
       </c>
       <c r="AM19" s="56">
         <f>AM101/AF28</f>
-        <v>31.35389002930221</v>
+        <v>37.23407874223988</v>
       </c>
       <c r="AN19" s="57">
         <f>AM101/AF105</f>
-        <v>35.734131649709035</v>
+        <v>42.43580207710653</v>
       </c>
     </row>
     <row r="20" spans="1:40" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5897,11 +5924,11 @@
       </c>
       <c r="AM22" s="58">
         <f>AE98/AM101*-1</f>
-        <v>6.1301048148349529E-3</v>
+        <v>5.1620085342514053E-3</v>
       </c>
       <c r="AN22" s="59">
         <f>AE107/AM101</f>
-        <v>2.8987317341467606E-2</v>
+        <v>2.4409497720103545E-2</v>
       </c>
     </row>
     <row r="23" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -13000,7 +13027,7 @@
       </c>
       <c r="AM94" s="55">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.9120000000000002E-2</v>
+        <v>4.3220000000000001E-2</v>
       </c>
     </row>
     <row r="95" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -13102,7 +13129,7 @@
       </c>
       <c r="AM95" s="36" cm="1">
         <f t="array" ref="AM95">_FV(A1,"Beta")</f>
-        <v>1.1822999999999999</v>
+        <v>1.1851</v>
       </c>
     </row>
     <row r="96" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -13305,7 +13332,7 @@
       </c>
       <c r="AM97" s="33">
         <f>(AM94)+((AM95)*(AM96-AM94))</f>
-        <v>9.2181624000000004E-2</v>
+        <v>9.1548378000000014E-2</v>
       </c>
     </row>
     <row r="98" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -13608,7 +13635,7 @@
       </c>
       <c r="AM100" s="33">
         <f>AM99/AM103</f>
-        <v>5.6351874495107368E-2</v>
+        <v>4.787859864073378E-2</v>
       </c>
     </row>
     <row r="101" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -13710,7 +13737,7 @@
       </c>
       <c r="AM101" s="37" cm="1">
         <f t="array" ref="AM101">_FV(A1,"Market cap",TRUE)</f>
-        <v>126262115148</v>
+        <v>149941635095</v>
       </c>
     </row>
     <row r="102" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -13812,7 +13839,7 @@
       </c>
       <c r="AM102" s="33">
         <f>AM101/AM103</f>
-        <v>0.94364812550489263</v>
+        <v>0.95212140135926626</v>
       </c>
     </row>
     <row r="103" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -13914,7 +13941,7 @@
       </c>
       <c r="AM103" s="38">
         <f>AM99+AM101</f>
-        <v>133802115148</v>
+        <v>157481635095</v>
       </c>
     </row>
     <row r="104" spans="1:39" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -14168,7 +14195,7 @@
       </c>
       <c r="AM105" s="40">
         <f>(AM100*AM92)+(AM102*AM97)</f>
-        <v>8.7479029957722818E-2</v>
+        <v>8.7583202287147027E-2</v>
       </c>
     </row>
     <row r="106" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -14419,7 +14446,7 @@
       <c r="AI107" s="28"/>
       <c r="AJ107" s="54">
         <f>AJ106*(1+AM107)/(AM108-AM107)</f>
-        <v>130546144930.85315</v>
+        <v>130328845471.60844</v>
       </c>
       <c r="AK107" s="29" t="s">
         <v>145</v>
@@ -14450,7 +14477,7 @@
       </c>
       <c r="AJ108" s="54">
         <f>AJ107+AJ106</f>
-        <v>138503604930.85315</v>
+        <v>138286305471.60843</v>
       </c>
       <c r="AK108" s="29" t="s">
         <v>142</v>
@@ -14460,7 +14487,7 @@
       </c>
       <c r="AM108" s="42">
         <f>AM105</f>
-        <v>8.7479029957722818E-2</v>
+        <v>8.7583202287147027E-2</v>
       </c>
     </row>
     <row r="109" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -14475,7 +14502,7 @@
       </c>
       <c r="AG110" s="37">
         <f>NPV(AM108,AF108,AG108,AH108,AI108,AJ108)</f>
-        <v>109066898083.05861</v>
+        <v>108876040729.67204</v>
       </c>
     </row>
     <row r="111" spans="1:39" ht="20" x14ac:dyDescent="0.25">
@@ -14502,7 +14529,7 @@
       </c>
       <c r="AG113" s="37">
         <f>AG110+AG111-AG112</f>
-        <v>104807898083.05861</v>
+        <v>104617040729.67204</v>
       </c>
     </row>
     <row r="114" spans="32:33" ht="20" x14ac:dyDescent="0.25">
@@ -14520,7 +14547,7 @@
       </c>
       <c r="AG115" s="48">
         <f>AG113/AG114</f>
-        <v>339.85569826471192</v>
+        <v>339.23681399844469</v>
       </c>
     </row>
     <row r="116" spans="32:33" ht="20" x14ac:dyDescent="0.25">
@@ -14529,7 +14556,7 @@
       </c>
       <c r="AG116" s="49" cm="1">
         <f t="array" ref="AG116">_FV(A1,"Price")</f>
-        <v>450.84</v>
+        <v>535.01</v>
       </c>
     </row>
     <row r="117" spans="32:33" ht="20" x14ac:dyDescent="0.25">
@@ -14538,7 +14565,7 @@
       </c>
       <c r="AG117" s="50">
         <f>AG115/AG116-1</f>
-        <v>-0.24617226008182069</v>
+        <v>-0.36592434908049443</v>
       </c>
     </row>
     <row r="118" spans="32:33" ht="20" x14ac:dyDescent="0.25">
